--- a/GUI_Main/Ganze Dokumentation/Gantdiagramm_neu_Sevin.xlsx
+++ b/GUI_Main/Ganze Dokumentation/Gantdiagramm_neu_Sevin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sevre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sevre\source\repos\MyNameIsSevin\GUI_Main_Sevin\GUI_Main\Ganze Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44F77D27-F578-4B01-9D77-28FEAF6BB165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AAC5EE-16D5-43C3-BE48-12F6AC062E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10710" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-Diagramm" sheetId="6" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>0:25h</t>
   </si>
   <si>
-    <t>21-23h</t>
-  </si>
-  <si>
     <t>1:40h</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Unittest</t>
+  </si>
+  <si>
+    <t>23+h</t>
   </si>
 </sst>
 </file>
@@ -362,10 +362,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -374,11 +379,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:BU33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,96 +734,96 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="16">
         <v>44501</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17">
         <v>44508</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17">
         <v>44515</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17">
         <v>44522</v>
       </c>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="13">
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="18">
         <v>44529</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16">
         <v>44536</v>
       </c>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11">
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17">
         <v>44543</v>
       </c>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11">
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17">
         <v>44550</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11">
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17">
         <v>44557</v>
       </c>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="13">
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="18">
         <v>44564</v>
       </c>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="12"/>
+      <c r="BP1" s="19"/>
+      <c r="BQ1" s="19"/>
+      <c r="BR1" s="19"/>
+      <c r="BS1" s="19"/>
+      <c r="BT1" s="19"/>
+      <c r="BU1" s="16"/>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -1048,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -1138,7 +1138,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="16"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1217,7 +1217,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="16"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1296,7 +1296,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="16"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1371,7 +1371,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="15"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1437,11 +1437,11 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
@@ -1452,10 +1452,10 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="15"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1519,7 +1519,7 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2"/>
@@ -1532,7 +1532,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="16"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1611,7 +1611,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="16"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1832,7 +1832,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
@@ -1843,29 +1843,29 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="16"/>
+      <c r="M13" s="12"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="19"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="15"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="15"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="16"/>
+      <c r="AG13" s="12"/>
       <c r="AH13" s="1"/>
-      <c r="AI13" s="16"/>
+      <c r="AI13" s="12"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
@@ -1985,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="2"/>
@@ -2062,7 +2062,7 @@
     <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="2"/>
@@ -2139,7 +2139,7 @@
     <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
@@ -3421,16 +3421,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AF1:AL1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AM1:AS1"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BG1"/>
     <mergeCell ref="BH1:BN1"/>
     <mergeCell ref="BO1:BU1"/>
-    <mergeCell ref="AF1:AL1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GUI_Main/Ganze Dokumentation/Gantdiagramm_neu_Sevin.xlsx
+++ b/GUI_Main/Ganze Dokumentation/Gantdiagramm_neu_Sevin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sevre\source\repos\MyNameIsSevin\GUI_Main_Sevin\GUI_Main\Ganze Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AAC5EE-16D5-43C3-BE48-12F6AC062E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FEED77-12F1-411A-AEFE-63AF47F8FAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-Diagramm" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>Nr</t>
   </si>
@@ -105,7 +105,19 @@
     <t>Unittest</t>
   </si>
   <si>
-    <t>23+h</t>
+    <t>28+h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>7+h</t>
+  </si>
+  <si>
+    <t>9+h</t>
   </si>
 </sst>
 </file>
@@ -133,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -350,7 +368,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -367,18 +385,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -661,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU33"/>
+  <dimension ref="A1:BG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="BH1" sqref="BH1:BN33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,19 +731,9 @@
     <col min="55" max="55" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="57" max="59" width="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="73" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -734,98 +743,80 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="18">
         <v>44501</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19">
         <v>44508</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17">
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19">
         <v>44515</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19">
         <v>44522</v>
       </c>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="18">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="16">
         <v>44529</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18">
         <v>44536</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17">
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19">
         <v>44543</v>
       </c>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17">
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19">
         <v>44550</v>
       </c>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17">
-        <v>44557</v>
-      </c>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="18">
-        <v>44564</v>
-      </c>
-      <c r="BP1" s="19"/>
-      <c r="BQ1" s="19"/>
-      <c r="BR1" s="19"/>
-      <c r="BS1" s="19"/>
-      <c r="BT1" s="19"/>
-      <c r="BU1" s="16"/>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="7"/>
@@ -997,50 +988,8 @@
       <c r="BG2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BH2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1106,22 +1055,8 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -1185,22 +1120,8 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
       <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="1"/>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="1"/>
-    </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1264,22 +1185,8 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1"/>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="1"/>
-    </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1343,22 +1250,8 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="1"/>
-      <c r="BH6" s="1"/>
-      <c r="BI6" s="1"/>
-      <c r="BJ6" s="1"/>
-      <c r="BK6" s="1"/>
-      <c r="BL6" s="1"/>
-      <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
-      <c r="BO6" s="1"/>
-      <c r="BP6" s="1"/>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="1"/>
-      <c r="BS6" s="1"/>
-      <c r="BT6" s="1"/>
-      <c r="BU6" s="1"/>
-    </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="7"/>
@@ -1418,22 +1311,8 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
-      <c r="BN7" s="1"/>
-      <c r="BO7" s="1"/>
-      <c r="BP7" s="1"/>
-      <c r="BQ7" s="1"/>
-      <c r="BR7" s="1"/>
-      <c r="BS7" s="1"/>
-      <c r="BT7" s="1"/>
-      <c r="BU7" s="1"/>
-    </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1499,22 +1378,8 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
-      <c r="BL8" s="1"/>
-      <c r="BM8" s="1"/>
-      <c r="BN8" s="1"/>
-      <c r="BO8" s="1"/>
-      <c r="BP8" s="1"/>
-      <c r="BQ8" s="1"/>
-      <c r="BR8" s="1"/>
-      <c r="BS8" s="1"/>
-      <c r="BT8" s="1"/>
-      <c r="BU8" s="1"/>
-    </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -1578,22 +1443,8 @@
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
       <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="1"/>
-      <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-    </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1657,22 +1508,8 @@
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BL10" s="1"/>
-      <c r="BM10" s="1"/>
-      <c r="BN10" s="1"/>
-      <c r="BO10" s="1"/>
-      <c r="BP10" s="1"/>
-      <c r="BQ10" s="1"/>
-      <c r="BR10" s="1"/>
-      <c r="BS10" s="1"/>
-      <c r="BT10" s="1"/>
-      <c r="BU10" s="1"/>
-    </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
@@ -1732,29 +1569,17 @@
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-    </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1811,22 +1636,8 @@
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
       <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
-      <c r="BQ12" s="1"/>
-      <c r="BR12" s="1"/>
-      <c r="BS12" s="1"/>
-      <c r="BT12" s="1"/>
-      <c r="BU12" s="1"/>
-    </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -1843,7 +1654,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="12"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1855,19 +1666,19 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="12"/>
+      <c r="AC13" s="20"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="12"/>
+      <c r="AG13" s="20"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
+      <c r="AK13" s="20"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="1"/>
@@ -1890,22 +1701,8 @@
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
       <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
-      <c r="BO13" s="1"/>
-      <c r="BP13" s="1"/>
-      <c r="BQ13" s="1"/>
-      <c r="BR13" s="1"/>
-      <c r="BS13" s="1"/>
-      <c r="BT13" s="1"/>
-      <c r="BU13" s="1"/>
-    </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
@@ -1965,29 +1762,17 @@
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
       <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
-      <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="1"/>
-      <c r="BQ14" s="1"/>
-      <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
-      <c r="BT14" s="1"/>
-      <c r="BU14" s="1"/>
-    </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2044,27 +1829,15 @@
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
-      <c r="BN15" s="1"/>
-      <c r="BO15" s="1"/>
-      <c r="BP15" s="1"/>
-      <c r="BQ15" s="1"/>
-      <c r="BR15" s="1"/>
-      <c r="BS15" s="1"/>
-      <c r="BT15" s="1"/>
-      <c r="BU15" s="1"/>
-    </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2096,9 +1869,9 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
+      <c r="AI16" s="20"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
+      <c r="AK16" s="20"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="1"/>
@@ -2121,27 +1894,15 @@
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
-      <c r="BN16" s="1"/>
-      <c r="BO16" s="1"/>
-      <c r="BP16" s="1"/>
-      <c r="BQ16" s="1"/>
-      <c r="BR16" s="1"/>
-      <c r="BS16" s="1"/>
-      <c r="BT16" s="1"/>
-      <c r="BU16" s="1"/>
-    </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2175,7 +1936,7 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
+      <c r="AK17" s="20"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="1"/>
@@ -2198,22 +1959,8 @@
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
       <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="1"/>
-      <c r="BQ17" s="1"/>
-      <c r="BR17" s="1"/>
-      <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
-      <c r="BU17" s="1"/>
-    </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="7"/>
@@ -2273,29 +2020,17 @@
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
-      <c r="BN18" s="1"/>
-      <c r="BO18" s="1"/>
-      <c r="BP18" s="1"/>
-      <c r="BQ18" s="1"/>
-      <c r="BR18" s="1"/>
-      <c r="BS18" s="1"/>
-      <c r="BT18" s="1"/>
-      <c r="BU18" s="1"/>
-    </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2352,22 +2087,8 @@
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
       <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
-      <c r="BQ19" s="1"/>
-      <c r="BR19" s="1"/>
-      <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="1"/>
-    </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="1"/>
       <c r="C20" s="7"/>
@@ -2427,22 +2148,8 @@
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
       <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-      <c r="BN20" s="1"/>
-      <c r="BO20" s="1"/>
-      <c r="BP20" s="1"/>
-      <c r="BQ20" s="1"/>
-      <c r="BR20" s="1"/>
-      <c r="BS20" s="1"/>
-      <c r="BT20" s="1"/>
-      <c r="BU20" s="1"/>
-    </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="7"/>
@@ -2502,22 +2209,8 @@
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
       <c r="BG21" s="1"/>
-      <c r="BH21" s="1"/>
-      <c r="BI21" s="1"/>
-      <c r="BJ21" s="1"/>
-      <c r="BK21" s="1"/>
-      <c r="BL21" s="1"/>
-      <c r="BM21" s="1"/>
-      <c r="BN21" s="1"/>
-      <c r="BO21" s="1"/>
-      <c r="BP21" s="1"/>
-      <c r="BQ21" s="1"/>
-      <c r="BR21" s="1"/>
-      <c r="BS21" s="1"/>
-      <c r="BT21" s="1"/>
-      <c r="BU21" s="1"/>
-    </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="7"/>
@@ -2577,22 +2270,8 @@
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
-      <c r="BH22" s="1"/>
-      <c r="BI22" s="1"/>
-      <c r="BJ22" s="1"/>
-      <c r="BK22" s="1"/>
-      <c r="BL22" s="1"/>
-      <c r="BM22" s="1"/>
-      <c r="BN22" s="1"/>
-      <c r="BO22" s="1"/>
-      <c r="BP22" s="1"/>
-      <c r="BQ22" s="1"/>
-      <c r="BR22" s="1"/>
-      <c r="BS22" s="1"/>
-      <c r="BT22" s="1"/>
-      <c r="BU22" s="1"/>
-    </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="7"/>
@@ -2652,22 +2331,8 @@
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
       <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
-      <c r="BM23" s="1"/>
-      <c r="BN23" s="1"/>
-      <c r="BO23" s="1"/>
-      <c r="BP23" s="1"/>
-      <c r="BQ23" s="1"/>
-      <c r="BR23" s="1"/>
-      <c r="BS23" s="1"/>
-      <c r="BT23" s="1"/>
-      <c r="BU23" s="1"/>
-    </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="7"/>
@@ -2727,22 +2392,8 @@
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
       <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
-      <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
-      <c r="BO24" s="1"/>
-      <c r="BP24" s="1"/>
-      <c r="BQ24" s="1"/>
-      <c r="BR24" s="1"/>
-      <c r="BS24" s="1"/>
-      <c r="BT24" s="1"/>
-      <c r="BU24" s="1"/>
-    </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="7"/>
@@ -2802,22 +2453,8 @@
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
       <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
-      <c r="BM25" s="1"/>
-      <c r="BN25" s="1"/>
-      <c r="BO25" s="1"/>
-      <c r="BP25" s="1"/>
-      <c r="BQ25" s="1"/>
-      <c r="BR25" s="1"/>
-      <c r="BS25" s="1"/>
-      <c r="BT25" s="1"/>
-      <c r="BU25" s="1"/>
-    </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
@@ -2877,22 +2514,8 @@
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
       <c r="BG26" s="1"/>
-      <c r="BH26" s="1"/>
-      <c r="BI26" s="1"/>
-      <c r="BJ26" s="1"/>
-      <c r="BK26" s="1"/>
-      <c r="BL26" s="1"/>
-      <c r="BM26" s="1"/>
-      <c r="BN26" s="1"/>
-      <c r="BO26" s="1"/>
-      <c r="BP26" s="1"/>
-      <c r="BQ26" s="1"/>
-      <c r="BR26" s="1"/>
-      <c r="BS26" s="1"/>
-      <c r="BT26" s="1"/>
-      <c r="BU26" s="1"/>
-    </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -2952,22 +2575,8 @@
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
       <c r="BG27" s="1"/>
-      <c r="BH27" s="1"/>
-      <c r="BI27" s="1"/>
-      <c r="BJ27" s="1"/>
-      <c r="BK27" s="1"/>
-      <c r="BL27" s="1"/>
-      <c r="BM27" s="1"/>
-      <c r="BN27" s="1"/>
-      <c r="BO27" s="1"/>
-      <c r="BP27" s="1"/>
-      <c r="BQ27" s="1"/>
-      <c r="BR27" s="1"/>
-      <c r="BS27" s="1"/>
-      <c r="BT27" s="1"/>
-      <c r="BU27" s="1"/>
-    </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
@@ -3027,22 +2636,8 @@
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
       <c r="BG28" s="1"/>
-      <c r="BH28" s="1"/>
-      <c r="BI28" s="1"/>
-      <c r="BJ28" s="1"/>
-      <c r="BK28" s="1"/>
-      <c r="BL28" s="1"/>
-      <c r="BM28" s="1"/>
-      <c r="BN28" s="1"/>
-      <c r="BO28" s="1"/>
-      <c r="BP28" s="1"/>
-      <c r="BQ28" s="1"/>
-      <c r="BR28" s="1"/>
-      <c r="BS28" s="1"/>
-      <c r="BT28" s="1"/>
-      <c r="BU28" s="1"/>
-    </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -3102,22 +2697,8 @@
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
-      <c r="BH29" s="1"/>
-      <c r="BI29" s="1"/>
-      <c r="BJ29" s="1"/>
-      <c r="BK29" s="1"/>
-      <c r="BL29" s="1"/>
-      <c r="BM29" s="1"/>
-      <c r="BN29" s="1"/>
-      <c r="BO29" s="1"/>
-      <c r="BP29" s="1"/>
-      <c r="BQ29" s="1"/>
-      <c r="BR29" s="1"/>
-      <c r="BS29" s="1"/>
-      <c r="BT29" s="1"/>
-      <c r="BU29" s="1"/>
-    </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
@@ -3177,22 +2758,8 @@
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
       <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
-      <c r="BI30" s="1"/>
-      <c r="BJ30" s="1"/>
-      <c r="BK30" s="1"/>
-      <c r="BL30" s="1"/>
-      <c r="BM30" s="1"/>
-      <c r="BN30" s="1"/>
-      <c r="BO30" s="1"/>
-      <c r="BP30" s="1"/>
-      <c r="BQ30" s="1"/>
-      <c r="BR30" s="1"/>
-      <c r="BS30" s="1"/>
-      <c r="BT30" s="1"/>
-      <c r="BU30" s="1"/>
-    </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>9</v>
       </c>
@@ -3254,22 +2821,8 @@
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
       <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
-      <c r="BI31" s="1"/>
-      <c r="BJ31" s="1"/>
-      <c r="BK31" s="1"/>
-      <c r="BL31" s="1"/>
-      <c r="BM31" s="1"/>
-      <c r="BN31" s="1"/>
-      <c r="BO31" s="1"/>
-      <c r="BP31" s="1"/>
-      <c r="BQ31" s="1"/>
-      <c r="BR31" s="1"/>
-      <c r="BS31" s="1"/>
-      <c r="BT31" s="1"/>
-      <c r="BU31" s="1"/>
-    </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
@@ -3329,22 +2882,8 @@
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
       <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
-      <c r="BI32" s="1"/>
-      <c r="BJ32" s="1"/>
-      <c r="BK32" s="1"/>
-      <c r="BL32" s="1"/>
-      <c r="BM32" s="1"/>
-      <c r="BN32" s="1"/>
-      <c r="BO32" s="1"/>
-      <c r="BP32" s="1"/>
-      <c r="BQ32" s="1"/>
-      <c r="BR32" s="1"/>
-      <c r="BS32" s="1"/>
-      <c r="BT32" s="1"/>
-      <c r="BU32" s="1"/>
-    </row>
-    <row r="33" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -3404,33 +2943,17 @@
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
       <c r="BG33" s="1"/>
-      <c r="BH33" s="1"/>
-      <c r="BI33" s="1"/>
-      <c r="BJ33" s="1"/>
-      <c r="BK33" s="1"/>
-      <c r="BL33" s="1"/>
-      <c r="BM33" s="1"/>
-      <c r="BN33" s="1"/>
-      <c r="BO33" s="1"/>
-      <c r="BP33" s="1"/>
-      <c r="BQ33" s="1"/>
-      <c r="BR33" s="1"/>
-      <c r="BS33" s="1"/>
-      <c r="BT33" s="1"/>
-      <c r="BU33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BG1"/>
     <mergeCell ref="AF1:AL1"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BG1"/>
-    <mergeCell ref="BH1:BN1"/>
-    <mergeCell ref="BO1:BU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
